--- a/text_classification_hatespeech/DAI_Bert/expResults.xlsx
+++ b/text_classification_hatespeech/DAI_Bert/expResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/text_classification_hatespeech/DAI_Bert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940F018-840F-BB4A-B9E8-CF4E18C43712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA71960F-DC89-E94A-9C32-BC7EC3ADB02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{D8498D42-E1A6-FE47-9C89-80F984E407DA}"/>
+    <workbookView xWindow="3640" yWindow="3680" windowWidth="27900" windowHeight="16940" xr2:uid="{D8498D42-E1A6-FE47-9C89-80F984E407DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="2" r:id="rId1"/>
@@ -174,15 +174,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -199,17 +205,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -565,124 +712,124 @@
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>0.29411759999999998</v>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.3170732</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>0.47499999999999998</v>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.2406015</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>0.11671090000000001</v>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.30612240000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.13407820000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0.3170732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.24427479999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0.2406015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0.13407820000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.32835819999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -691,32 +838,32 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0.30612240000000002</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.2105263</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.24427479999999999</v>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.29411759999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>6</v>
+      <c r="A10" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -725,38 +872,33 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.32835819999999999</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.2105263</v>
+      <c r="D11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.11671090000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{72B936A7-1C65-DD46-9013-AE99AE025DFA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
-      <sortCondition ref="D1:D11"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -764,7 +906,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C09F1541-3DD5-7E4A-B855-A0220F504B63}</x14:id>
+          <x14:id>{BCDE5ADA-1BFA-334C-A9CB-7566F689D856}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -774,7 +916,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C09F1541-3DD5-7E4A-B855-A0220F504B63}">
+          <x14:cfRule type="dataBar" id="{BCDE5ADA-1BFA-334C-A9CB-7566F689D856}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
